--- a/fexcel/testdata/test.xlsx
+++ b/fexcel/testdata/test.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay\dev\go\src\github.com\onerobotics\fexcel\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/dev/go/src/github.com/onerobotics/fexcel/fexcel/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46CE69B-B93E-4CCE-AB01-2998203447ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="1128" windowWidth="12612" windowHeight="11292" xr2:uid="{A83EBFEA-4CE7-42E2-83DE-C8E055DDD2CA}"/>
+    <workbookView xWindow="260" yWindow="1120" windowWidth="12620" windowHeight="11300"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="IO" sheetId="2" r:id="rId2"/>
     <sheet name="Alarms" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -53,127 +55,127 @@
     <t>four</t>
   </si>
   <si>
+    <t>posregs</t>
+  </si>
+  <si>
+    <t>pr1</t>
+  </si>
+  <si>
+    <t>pr2</t>
+  </si>
+  <si>
+    <t>pr3</t>
+  </si>
+  <si>
+    <t>pr4</t>
+  </si>
+  <si>
+    <t>pr5</t>
+  </si>
+  <si>
+    <t>ualm</t>
+  </si>
+  <si>
+    <t>test two</t>
+  </si>
+  <si>
+    <t>test three</t>
+  </si>
+  <si>
+    <t>test four</t>
+  </si>
+  <si>
+    <t>ri</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>gi</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>din1</t>
+  </si>
+  <si>
+    <t>din2</t>
+  </si>
+  <si>
+    <t>din3</t>
+  </si>
+  <si>
+    <t>dout1</t>
+  </si>
+  <si>
+    <t>dout2</t>
+  </si>
+  <si>
+    <t>dout3</t>
+  </si>
+  <si>
+    <t>dout4</t>
+  </si>
+  <si>
+    <t>rin1</t>
+  </si>
+  <si>
+    <t>rin2</t>
+  </si>
+  <si>
+    <t>rout1</t>
+  </si>
+  <si>
+    <t>gin1</t>
+  </si>
+  <si>
+    <t>gout1</t>
+  </si>
+  <si>
+    <t>ain1</t>
+  </si>
+  <si>
+    <t>aout1</t>
+  </si>
+  <si>
+    <t>sregs</t>
+  </si>
+  <si>
+    <t>sreg1</t>
+  </si>
+  <si>
+    <t>sreg2</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>this is an extremely long comment</t>
+  </si>
+  <si>
     <t>five</t>
-  </si>
-  <si>
-    <t>posregs</t>
-  </si>
-  <si>
-    <t>pr1</t>
-  </si>
-  <si>
-    <t>pr2</t>
-  </si>
-  <si>
-    <t>pr3</t>
-  </si>
-  <si>
-    <t>pr4</t>
-  </si>
-  <si>
-    <t>pr5</t>
-  </si>
-  <si>
-    <t>ualm</t>
-  </si>
-  <si>
-    <t>test two</t>
-  </si>
-  <si>
-    <t>test three</t>
-  </si>
-  <si>
-    <t>test four</t>
-  </si>
-  <si>
-    <t>ri</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>gi</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>ao</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>din1</t>
-  </si>
-  <si>
-    <t>din2</t>
-  </si>
-  <si>
-    <t>din3</t>
-  </si>
-  <si>
-    <t>dout1</t>
-  </si>
-  <si>
-    <t>dout2</t>
-  </si>
-  <si>
-    <t>dout3</t>
-  </si>
-  <si>
-    <t>dout4</t>
-  </si>
-  <si>
-    <t>rin1</t>
-  </si>
-  <si>
-    <t>rin2</t>
-  </si>
-  <si>
-    <t>rout1</t>
-  </si>
-  <si>
-    <t>gin1</t>
-  </si>
-  <si>
-    <t>gout1</t>
-  </si>
-  <si>
-    <t>ain1</t>
-  </si>
-  <si>
-    <t>aout1</t>
-  </si>
-  <si>
-    <t>sregs</t>
-  </si>
-  <si>
-    <t>sreg1</t>
-  </si>
-  <si>
-    <t>sreg2</t>
-  </si>
-  <si>
-    <t>flags</t>
-  </si>
-  <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>this is an extremely long comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,16 +520,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2473686E-B083-42C4-A4C6-F56E03DA2EE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -590,16 +592,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -610,10 +612,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -624,21 +626,21 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -647,131 +649,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173EB9B1-051D-4B2D-A86E-96559B44DA2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -780,21 +782,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA60EAB3-5286-4B68-99E6-FA4BB62064F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -802,28 +804,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/fexcel/testdata/test.xlsx
+++ b/fexcel/testdata/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/dev/go/src/github.com/onerobotics/fexcel/fexcel/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay\dev\go\src\github.com\unreal\fexcel\fexcel\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D448531-03E7-4173-919E-40AE118AB465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1120" windowWidth="12620" windowHeight="11300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,24 +19,18 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>numregs</t>
   </si>
@@ -170,12 +165,24 @@
   </si>
   <si>
     <t>five</t>
+  </si>
+  <si>
+    <t>constants</t>
+  </si>
+  <si>
+    <t>FOO</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>BAZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,16 +527,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,8 +561,11 @@
       <c r="K1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -580,8 +590,14 @@
       <c r="K2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -600,8 +616,14 @@
       <c r="H3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -615,7 +637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -629,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -649,16 +671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -684,7 +706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -734,7 +756,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -754,7 +776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -768,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>4</v>
       </c>
@@ -782,21 +804,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -804,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -812,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -820,7 +842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/fexcel/testdata/test.xlsx
+++ b/fexcel/testdata/test.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay\dev\go\src\github.com\unreal\fexcel\fexcel\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay\dev\go\src\github.com\onerobotics\fexcel\fexcel\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D448531-03E7-4173-919E-40AE118AB465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3329B68-B4DA-4135-B704-B595338A1D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8745" yWindow="2460" windowWidth="22605" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="IO" sheetId="2" r:id="rId2"/>
     <sheet name="Alarms" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>numregs</t>
   </si>
@@ -177,6 +186,21 @@
   </si>
   <si>
     <t>BAZ</t>
+  </si>
+  <si>
+    <t>more numregs</t>
+  </si>
+  <si>
+    <t>numreg 42</t>
+  </si>
+  <si>
+    <t>numreg 43</t>
+  </si>
+  <si>
+    <t>numreg 44</t>
+  </si>
+  <si>
+    <t>numreg 45</t>
   </si>
 </sst>
 </file>
@@ -528,15 +552,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +588,11 @@
       <c r="M1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -596,8 +623,14 @@
       <c r="N2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -622,8 +655,14 @@
       <c r="N3">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -636,8 +675,14 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -650,8 +695,14 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>45</v>
+      </c>
+      <c r="S5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
